--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H2">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.9086306038899</v>
+        <v>17.945525</v>
       </c>
       <c r="N2">
-        <v>17.9086306038899</v>
+        <v>35.89105</v>
       </c>
       <c r="O2">
-        <v>0.3222769267999882</v>
+        <v>0.3147738875783</v>
       </c>
       <c r="P2">
-        <v>0.3222769267999882</v>
+        <v>0.2472168478181395</v>
       </c>
       <c r="Q2">
-        <v>77.61295819473098</v>
+        <v>82.89195918120001</v>
       </c>
       <c r="R2">
-        <v>77.61295819473098</v>
+        <v>497.3517550872</v>
       </c>
       <c r="S2">
-        <v>0.3222769267999882</v>
+        <v>0.3147738875783</v>
       </c>
       <c r="T2">
-        <v>0.3222769267999882</v>
+        <v>0.2472168478181395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H3">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.89548939855882</v>
+        <v>3.914977</v>
       </c>
       <c r="N3">
-        <v>3.89548939855882</v>
+        <v>11.744931</v>
       </c>
       <c r="O3">
-        <v>0.07010175035252456</v>
+        <v>0.06867074270993077</v>
       </c>
       <c r="P3">
-        <v>0.07010175035252456</v>
+        <v>0.0808988541617353</v>
       </c>
       <c r="Q3">
-        <v>16.8823883034749</v>
+        <v>18.083623280976</v>
       </c>
       <c r="R3">
-        <v>16.8823883034749</v>
+        <v>162.752609528784</v>
       </c>
       <c r="S3">
-        <v>0.07010175035252456</v>
+        <v>0.06867074270993077</v>
       </c>
       <c r="T3">
-        <v>0.07010175035252456</v>
+        <v>0.0808988541617353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H4">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.9724151835809</v>
+        <v>7.595080333333333</v>
       </c>
       <c r="N4">
-        <v>6.9724151835809</v>
+        <v>22.785241</v>
       </c>
       <c r="O4">
-        <v>0.1254729402509397</v>
+        <v>0.133221678551774</v>
       </c>
       <c r="P4">
-        <v>0.1254729402509397</v>
+        <v>0.1569442927079769</v>
       </c>
       <c r="Q4">
-        <v>30.21726117026668</v>
+        <v>35.082344426736</v>
       </c>
       <c r="R4">
-        <v>30.21726117026668</v>
+        <v>315.741099840624</v>
       </c>
       <c r="S4">
-        <v>0.1254729402509397</v>
+        <v>0.133221678551774</v>
       </c>
       <c r="T4">
-        <v>0.1254729402509397</v>
+        <v>0.1569442927079769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H5">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.81797722923503</v>
+        <v>8.835736333333331</v>
       </c>
       <c r="N5">
-        <v>8.81797722923503</v>
+        <v>26.507209</v>
       </c>
       <c r="O5">
-        <v>0.1586849751322064</v>
+        <v>0.1549834332102386</v>
       </c>
       <c r="P5">
-        <v>0.1586849751322064</v>
+        <v>0.18258113522554</v>
       </c>
       <c r="Q5">
-        <v>38.21561308579636</v>
+        <v>40.813043668464</v>
       </c>
       <c r="R5">
-        <v>38.21561308579636</v>
+        <v>367.317393016176</v>
       </c>
       <c r="S5">
-        <v>0.1586849751322064</v>
+        <v>0.1549834332102386</v>
       </c>
       <c r="T5">
-        <v>0.1586849751322064</v>
+        <v>0.18258113522554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H6">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.4868272380263</v>
+        <v>10.81295533333333</v>
       </c>
       <c r="N6">
-        <v>10.4868272380263</v>
+        <v>32.438866</v>
       </c>
       <c r="O6">
-        <v>0.1887169671934287</v>
+        <v>0.1896648878471846</v>
       </c>
       <c r="P6">
-        <v>0.1887169671934287</v>
+        <v>0.2234382721964117</v>
       </c>
       <c r="Q6">
-        <v>45.44812509804702</v>
+        <v>49.94599222473601</v>
       </c>
       <c r="R6">
-        <v>45.44812509804702</v>
+        <v>449.5139300226241</v>
       </c>
       <c r="S6">
-        <v>0.1887169671934287</v>
+        <v>0.1896648878471846</v>
       </c>
       <c r="T6">
-        <v>0.1887169671934287</v>
+        <v>0.2234382721964117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H7">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.48773499847391</v>
+        <v>7.90657</v>
       </c>
       <c r="N7">
-        <v>7.48773499847391</v>
+        <v>15.81314</v>
       </c>
       <c r="O7">
-        <v>0.1347464402709125</v>
+        <v>0.1386853701025721</v>
       </c>
       <c r="P7">
-        <v>0.1347464402709125</v>
+        <v>0.1089205978901965</v>
       </c>
       <c r="Q7">
-        <v>32.45056957529462</v>
+        <v>36.52114260816001</v>
       </c>
       <c r="R7">
-        <v>32.45056957529462</v>
+        <v>219.12685564896</v>
       </c>
       <c r="S7">
-        <v>0.1347464402709125</v>
+        <v>0.1386853701025721</v>
       </c>
       <c r="T7">
-        <v>0.1347464402709125</v>
+        <v>0.1089205978901965</v>
       </c>
     </row>
   </sheetData>
